--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A5E4A48-2605-A941-8C56-E60BC229DEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD3ACFB-933F-D846-B8C3-E4F8FB91D02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
@@ -398,7 +398,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,10 +463,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="C6">
-        <v>1600</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -477,7 +477,7 @@
         <v>1411</v>
       </c>
       <c r="C7">
-        <v>2200</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -488,7 +488,7 @@
         <v>1769</v>
       </c>
       <c r="C8">
-        <v>2400</v>
+        <v>2600</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD3ACFB-933F-D846-B8C3-E4F8FB91D02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E7AC5E-656F-2543-82DE-D46D5C015442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,6 +491,17 @@
         <v>2600</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1769</v>
+      </c>
+      <c r="C9">
+        <v>2800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E7AC5E-656F-2543-82DE-D46D5C015442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6E20D0-BD7C-7A41-A0D7-EEA3A5336B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Uke</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>Baseline</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Mads</t>
+  </si>
+  <si>
+    <t>Tobias</t>
   </si>
 </sst>
 </file>
@@ -395,15 +404,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,8 +422,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -424,8 +442,17 @@
       <c r="C2">
         <v>800</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -435,8 +462,17 @@
       <c r="C3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -446,8 +482,17 @@
       <c r="C4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -457,8 +502,17 @@
       <c r="C5">
         <v>1400</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -468,8 +522,17 @@
       <c r="C6">
         <v>2200</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>400</v>
+      </c>
+      <c r="E6">
+        <v>400</v>
+      </c>
+      <c r="F6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -479,8 +542,17 @@
       <c r="C7">
         <v>2400</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>400</v>
+      </c>
+      <c r="E7">
+        <v>400</v>
+      </c>
+      <c r="F7">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -490,8 +562,17 @@
       <c r="C8">
         <v>2600</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>758</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
+      </c>
+      <c r="F8">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -500,6 +581,15 @@
       </c>
       <c r="C9">
         <v>2800</v>
+      </c>
+      <c r="D9">
+        <v>758</v>
+      </c>
+      <c r="E9">
+        <v>400</v>
+      </c>
+      <c r="F9">
+        <v>611</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6E20D0-BD7C-7A41-A0D7-EEA3A5336B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F2D620-0D09-C24C-8333-712403286B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="1" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Uke</t>
   </si>
@@ -406,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,4 +596,195 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93274CCA-B4A1-EC41-A449-BF1C124B6C92}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>600</v>
+      </c>
+      <c r="C2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>600</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>600</v>
+      </c>
+      <c r="C4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>600</v>
+      </c>
+      <c r="C5">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1200</v>
+      </c>
+      <c r="C6">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1411</v>
+      </c>
+      <c r="C7">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1769</v>
+      </c>
+      <c r="C8">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1769</v>
+      </c>
+      <c r="C9">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2347</v>
+      </c>
+      <c r="C10">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3345</v>
+      </c>
+      <c r="C11">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3759</v>
+      </c>
+      <c r="C12">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4789</v>
+      </c>
+      <c r="C13">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7654</v>
+      </c>
+      <c r="C14">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>9756</v>
+      </c>
+      <c r="C15">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>17894</v>
+      </c>
+      <c r="C16">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F2D620-0D09-C24C-8333-712403286B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF954B4C-752B-9B49-A329-A46C3DCDCDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="1" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Uke</t>
   </si>
@@ -47,13 +48,16 @@
     <t>Baseline</t>
   </si>
   <si>
-    <t>Elias</t>
-  </si>
-  <si>
     <t>Mads</t>
   </si>
   <si>
     <t>Tobias</t>
+  </si>
+  <si>
+    <t>Gameweek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elias </t>
   </si>
 </sst>
 </file>
@@ -405,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,17 +427,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -443,17 +438,8 @@
       <c r="C2">
         <v>800</v>
       </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-      <c r="E2">
-        <v>200</v>
-      </c>
-      <c r="F2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -463,17 +449,8 @@
       <c r="C3">
         <v>1000</v>
       </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
-      <c r="E3">
-        <v>200</v>
-      </c>
-      <c r="F3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -483,17 +460,8 @@
       <c r="C4">
         <v>1200</v>
       </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-      <c r="E4">
-        <v>200</v>
-      </c>
-      <c r="F4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -503,17 +471,8 @@
       <c r="C5">
         <v>1400</v>
       </c>
-      <c r="D5">
-        <v>200</v>
-      </c>
-      <c r="E5">
-        <v>200</v>
-      </c>
-      <c r="F5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -523,17 +482,8 @@
       <c r="C6">
         <v>2200</v>
       </c>
-      <c r="D6">
-        <v>400</v>
-      </c>
-      <c r="E6">
-        <v>400</v>
-      </c>
-      <c r="F6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -543,17 +493,8 @@
       <c r="C7">
         <v>2400</v>
       </c>
-      <c r="D7">
-        <v>400</v>
-      </c>
-      <c r="E7">
-        <v>400</v>
-      </c>
-      <c r="F7">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -563,17 +504,8 @@
       <c r="C8">
         <v>2600</v>
       </c>
-      <c r="D8">
-        <v>758</v>
-      </c>
-      <c r="E8">
-        <v>400</v>
-      </c>
-      <c r="F8">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -582,15 +514,6 @@
       </c>
       <c r="C9">
         <v>2800</v>
-      </c>
-      <c r="D9">
-        <v>758</v>
-      </c>
-      <c r="E9">
-        <v>400</v>
-      </c>
-      <c r="F9">
-        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93274CCA-B4A1-EC41-A449-BF1C124B6C92}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -787,4 +710,84 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53F0CC7-B270-0845-84AB-F38903ACB32E}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>211</v>
+      </c>
+      <c r="E3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>358.25</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF954B4C-752B-9B49-A329-A46C3DCDCDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EC73B5-3E12-1B47-AE86-FA753F3C36C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="1" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93274CCA-B4A1-EC41-A449-BF1C124B6C92}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2347</v>
+        <v>1769</v>
       </c>
       <c r="C10">
         <v>3400</v>
@@ -716,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53F0CC7-B270-0845-84AB-F38903ACB32E}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -783,6 +783,9 @@
       <c r="C4">
         <v>0</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4">
         <v>600</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EC73B5-3E12-1B47-AE86-FA753F3C36C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6590BB-47A9-294A-A385-B5671A9769DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="1" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Uke</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">Elias </t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,6 +517,142 @@
       </c>
       <c r="C9">
         <v>2800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>1769 + 600</f>
+        <v>2369</v>
+      </c>
+      <c r="C10">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>B10+124.61</f>
+        <v>2493.61</v>
+      </c>
+      <c r="C11">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>8800</v>
       </c>
     </row>
   </sheetData>
@@ -525,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93274CCA-B4A1-EC41-A449-BF1C124B6C92}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,10 +853,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53F0CC7-B270-0845-84AB-F38903ACB32E}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,10 +923,194 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="E4">
         <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>358.25</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>211</v>
+      </c>
+      <c r="E5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>B5+124.61</f>
+        <v>482.86</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>4000</v>
+      </c>
+      <c r="L21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>4800</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6590BB-47A9-294A-A385-B5671A9769DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25A3D00-B2CE-8545-B213-A7BCCED32797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,225 +433,236 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>600</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>600</v>
       </c>
       <c r="C4">
-        <v>1200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>600</v>
       </c>
       <c r="C5">
-        <v>1400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="C6">
-        <v>2200</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1411</v>
+        <v>1200</v>
       </c>
       <c r="C7">
-        <v>2400</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>1769</v>
+        <v>1411</v>
       </c>
       <c r="C8">
-        <v>2600</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1769</v>
       </c>
       <c r="C9">
-        <v>2800</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1769</v>
+      </c>
+      <c r="C10">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <f>1769 + 600</f>
         <v>2369</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>3600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f>B10+124.61</f>
-        <v>2493.61</v>
-      </c>
-      <c r="C11">
-        <v>3800</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f>B11+124.61</f>
+        <v>2493.61</v>
       </c>
       <c r="C12">
-        <v>4000</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>4200</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>5000</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>5200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>5400</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>5600</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>6400</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>6600</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>6800</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>7600</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>7800</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>8000</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>8200</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>8800</v>
       </c>
     </row>
@@ -662,10 +673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93274CCA-B4A1-EC41-A449-BF1C124B6C92}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -683,166 +694,177 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>600</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>600</v>
       </c>
       <c r="C4">
-        <v>1200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>600</v>
       </c>
       <c r="C5">
-        <v>1400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="C6">
-        <v>2200</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1411</v>
+        <v>1200</v>
       </c>
       <c r="C7">
-        <v>2400</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>1769</v>
+        <v>1411</v>
       </c>
       <c r="C8">
-        <v>2600</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1769</v>
       </c>
       <c r="C9">
-        <v>2800</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1769</v>
       </c>
       <c r="C10">
-        <v>3400</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>3345</v>
+        <v>1769</v>
       </c>
       <c r="C11">
-        <v>3600</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>3759</v>
+        <v>3345</v>
       </c>
       <c r="C12">
-        <v>3800</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>4789</v>
+        <v>3759</v>
       </c>
       <c r="C13">
-        <v>4000</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>7654</v>
+        <v>4789</v>
       </c>
       <c r="C14">
-        <v>4600</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>9756</v>
+        <v>7654</v>
       </c>
       <c r="C15">
-        <v>4800</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>9756</v>
+      </c>
+      <c r="C16">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>17894</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>5000</v>
       </c>
     </row>
@@ -853,10 +875,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53F0CC7-B270-0845-84AB-F38903ACB32E}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -880,7 +902,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -892,12 +914,12 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -906,18 +928,18 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>358.25</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -926,12 +948,12 @@
         <v>211</v>
       </c>
       <c r="E4">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>358.25</v>
@@ -943,173 +965,190 @@
         <v>211</v>
       </c>
       <c r="E5">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <f>B5+124.61</f>
-        <v>482.86</v>
+        <v>358.25</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>211</v>
       </c>
       <c r="E6">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f>B6+124.61</f>
+        <v>482.86</v>
       </c>
       <c r="E7">
-        <v>1200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>1400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>1600</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>1800</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>2000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>2200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>2400</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>2600</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15">
-        <v>2800</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16">
-        <v>3000</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>3200</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18">
-        <v>3400</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19">
-        <v>3600</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20">
-        <v>3800</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21">
-        <v>4000</v>
-      </c>
-      <c r="L21" t="s">
-        <v>7</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>4200</v>
+        <v>4000</v>
+      </c>
+      <c r="L22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>4400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>4600</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>4800</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25A3D00-B2CE-8545-B213-A7BCCED32797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA43E51C-771B-E048-B8F2-1ACBA88BA9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,6 +113,44 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}" name="Table3" displayName="Table3" ref="A1:C26" totalsRowShown="0">
+  <autoFilter ref="A1:C26" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B22A68A6-9800-4247-AD72-C861467464A4}" name="Uke"/>
+    <tableColumn id="2" xr3:uid="{7BFF6EF7-2935-3140-8D57-F688DA260212}" name="Reisekassa"/>
+    <tableColumn id="3" xr3:uid="{DC42A87A-B54B-7746-B558-B41DFAACB79A}" name="Baseline"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9BB84EFF-5614-AD4A-AF2B-42ECC901D661}" name="Table2" displayName="Table2" ref="A1:C17" totalsRowShown="0">
+  <autoFilter ref="A1:C17" xr:uid="{9BB84EFF-5614-AD4A-AF2B-42ECC901D661}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{49C2A2A3-AE31-1648-BEA9-EF6C6A0E3671}" name="Uke"/>
+    <tableColumn id="2" xr3:uid="{1C722839-A068-D746-AC43-491F7C4358E8}" name="Reisekassa"/>
+    <tableColumn id="3" xr3:uid="{91D0719A-A529-E942-BBD1-16836C947E9C}" name="Baseline"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77D1F958-B43A-BB4E-B290-D9CFD030EB09}" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+  <autoFilter ref="A1:E26" xr:uid="{77D1F958-B43A-BB4E-B290-D9CFD030EB09}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6B82D18C-F4C7-FD42-B159-97F80E78ABC7}" name="Gameweek"/>
+    <tableColumn id="2" xr3:uid="{42E74C4D-5F35-C944-BB39-C1045FC1894F}" name="Elias "/>
+    <tableColumn id="3" xr3:uid="{48B1D0D5-552E-624F-9946-7A206B20C953}" name="Mads"/>
+    <tableColumn id="4" xr3:uid="{4A9FB99A-2B56-B443-924B-9C16FB2DAF37}" name="Tobias"/>
+    <tableColumn id="5" xr3:uid="{CAEB7DF4-75FE-E645-BB06-A1C594B1048D}" name="Baseline"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,11 +452,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -668,6 +709,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -676,10 +720,13 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -870,6 +917,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -877,11 +927,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53F0CC7-B270-0845-84AB-F38903ACB32E}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1154,5 +1207,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA43E51C-771B-E048-B8F2-1ACBA88BA9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77629416-43CE-974B-9522-6AC555FAB799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Uke</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t xml:space="preserve">Elias </t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -140,8 +137,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77D1F958-B43A-BB4E-B290-D9CFD030EB09}" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
-  <autoFilter ref="A1:E26" xr:uid="{77D1F958-B43A-BB4E-B290-D9CFD030EB09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77D1F958-B43A-BB4E-B290-D9CFD030EB09}" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10" xr:uid="{77D1F958-B43A-BB4E-B290-D9CFD030EB09}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6B82D18C-F4C7-FD42-B159-97F80E78ABC7}" name="Gameweek"/>
     <tableColumn id="2" xr3:uid="{42E74C4D-5F35-C944-BB39-C1045FC1894F}" name="Elias "/>
@@ -452,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -925,10 +922,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53F0CC7-B270-0845-84AB-F38903ACB32E}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1074,137 +1071,6 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="E18">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="E19">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="E21">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>4000</v>
-      </c>
-      <c r="L22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>4800</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77629416-43CE-974B-9522-6AC555FAB799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801003C3-1D91-3242-A05B-35839B9B91E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
@@ -925,7 +925,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1043,6 +1043,9 @@
         <f>B6+124.61</f>
         <v>482.86</v>
       </c>
+      <c r="C7">
+        <v>300</v>
+      </c>
       <c r="E7">
         <v>1000</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801003C3-1D91-3242-A05B-35839B9B91E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AF008E-5DD5-944C-BA58-5AECD7FF9BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="251" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,6 +595,10 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
+      </c>
+      <c r="B13">
+        <f>B12+300</f>
+        <v>2793.61</v>
       </c>
       <c r="C13">
         <v>4000</v>
@@ -924,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53F0CC7-B270-0845-84AB-F38903ACB32E}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AF008E-5DD5-944C-BA58-5AECD7FF9BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AFC67D-2C0E-4449-A3A6-897939285940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="1" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -81,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,12 +90,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,8 +138,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9BB84EFF-5614-AD4A-AF2B-42ECC901D661}" name="Table2" displayName="Table2" ref="A1:C17" totalsRowShown="0">
-  <autoFilter ref="A1:C17" xr:uid="{9BB84EFF-5614-AD4A-AF2B-42ECC901D661}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9BB84EFF-5614-AD4A-AF2B-42ECC901D661}" name="Table2" displayName="Table2" ref="A1:C26" totalsRowShown="0">
+  <autoFilter ref="A1:C26" xr:uid="{9BB84EFF-5614-AD4A-AF2B-42ECC901D661}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{49C2A2A3-AE31-1648-BEA9-EF6C6A0E3671}" name="Uke"/>
     <tableColumn id="2" xr3:uid="{1C722839-A068-D746-AC43-491F7C4358E8}" name="Reisekassa"/>
@@ -151,9 +164,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -191,7 +204,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -297,7 +310,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,7 +452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -447,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="251" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A11" zoomScale="176" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -458,7 +471,7 @@
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -480,7 +493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -491,7 +504,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -502,7 +515,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -513,7 +526,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -524,7 +537,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -535,7 +548,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -546,83 +559,96 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1769</v>
+        <v>1769.25</v>
       </c>
       <c r="C9">
         <v>2600</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1769</v>
+        <v>1769.25</v>
       </c>
       <c r="C10">
         <v>2800</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <f>1769 + 600</f>
-        <v>2369</v>
+        <f>1769.25 + 600</f>
+        <v>2369.25</v>
       </c>
       <c r="C11">
         <v>3600</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <f>B11+124.61</f>
-        <v>2493.61</v>
+        <v>2493.86</v>
       </c>
       <c r="C12">
         <v>3800</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <f>B12+300</f>
-        <v>2793.61</v>
+        <f>B12</f>
+        <v>2493.86</v>
       </c>
       <c r="C13">
         <v>4000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="B14">
+        <f>B13</f>
+        <v>2493.86</v>
+      </c>
       <c r="C14">
         <v>4200</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15">
+        <f>B14+600</f>
+        <v>3093.86</v>
+      </c>
       <c r="C15">
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
+      </c>
+      <c r="B16">
+        <f>B15+300</f>
+        <v>3393.86</v>
       </c>
       <c r="C16">
         <v>5200</v>
@@ -632,6 +658,10 @@
       <c r="A17">
         <v>15</v>
       </c>
+      <c r="B17">
+        <f>B16</f>
+        <v>3393.86</v>
+      </c>
       <c r="C17">
         <v>5400</v>
       </c>
@@ -640,6 +670,10 @@
       <c r="A18">
         <v>16</v>
       </c>
+      <c r="B18">
+        <f>B17</f>
+        <v>3393.86</v>
+      </c>
       <c r="C18">
         <v>5600</v>
       </c>
@@ -648,6 +682,10 @@
       <c r="A19">
         <v>17</v>
       </c>
+      <c r="B19">
+        <f>B18+600</f>
+        <v>3993.86</v>
+      </c>
       <c r="C19">
         <v>6400</v>
       </c>
@@ -656,6 +694,10 @@
       <c r="A20">
         <v>18</v>
       </c>
+      <c r="B20">
+        <f>B19+370</f>
+        <v>4363.8600000000006</v>
+      </c>
       <c r="C20">
         <v>6600</v>
       </c>
@@ -664,6 +706,10 @@
       <c r="A21">
         <v>19</v>
       </c>
+      <c r="B21">
+        <f>B20+367.5</f>
+        <v>4731.3600000000006</v>
+      </c>
       <c r="C21">
         <v>6800</v>
       </c>
@@ -705,7 +751,7 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>8800</v>
+        <v>9000</v>
       </c>
     </row>
   </sheetData>
@@ -718,10 +764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93274CCA-B4A1-EC41-A449-BF1C124B6C92}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -822,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1769</v>
+        <v>1769.25</v>
       </c>
       <c r="C9">
         <v>2600</v>
@@ -833,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1769</v>
+        <v>1769.25</v>
       </c>
       <c r="C10">
         <v>2800</v>
@@ -844,10 +890,11 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1769</v>
+        <f>1769.25 + 600</f>
+        <v>2369.25</v>
       </c>
       <c r="C11">
-        <v>3400</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -855,10 +902,11 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3345</v>
+        <f>B11+124.61</f>
+        <v>2493.86</v>
       </c>
       <c r="C12">
-        <v>3600</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -866,10 +914,11 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3759</v>
+        <f>B12</f>
+        <v>2493.86</v>
       </c>
       <c r="C13">
-        <v>3800</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -877,10 +926,11 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4789</v>
+        <f>B13</f>
+        <v>2493.86</v>
       </c>
       <c r="C14">
-        <v>4000</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -888,10 +938,11 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7654</v>
+        <f>B14+600</f>
+        <v>3093.86</v>
       </c>
       <c r="C15">
-        <v>4600</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -899,10 +950,11 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9756</v>
+        <f>B15+300</f>
+        <v>3393.86</v>
       </c>
       <c r="C16">
-        <v>4800</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -910,10 +962,119 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17894</v>
+        <f>B16</f>
+        <v>3393.86</v>
       </c>
       <c r="C17">
-        <v>5000</v>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f>B17</f>
+        <v>3393.86</v>
+      </c>
+      <c r="C18">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f>B18+600</f>
+        <v>3993.86</v>
+      </c>
+      <c r="C19">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f>B19+370</f>
+        <v>4363.8600000000006</v>
+      </c>
+      <c r="C20">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f>B20+367.5</f>
+        <v>4731.3600000000006</v>
+      </c>
+      <c r="C21">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f>B21+1467</f>
+        <v>6198.3600000000006</v>
+      </c>
+      <c r="C22">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f>B22+1643</f>
+        <v>7841.3600000000006</v>
+      </c>
+      <c r="C23">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f>B23+2345</f>
+        <v>10186.36</v>
+      </c>
+      <c r="C24">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f>B24+3789</f>
+        <v>13975.36</v>
+      </c>
+      <c r="C25">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f>B25+5790</f>
+        <v>19765.36</v>
+      </c>
+      <c r="C26">
+        <v>9000</v>
       </c>
     </row>
   </sheetData>
@@ -929,7 +1090,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1050,6 +1211,9 @@
       <c r="C7">
         <v>300</v>
       </c>
+      <c r="D7">
+        <v>211</v>
+      </c>
       <c r="E7">
         <v>1000</v>
       </c>
@@ -1058,6 +1222,17 @@
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8">
+        <f>B7</f>
+        <v>482.86</v>
+      </c>
+      <c r="C8">
+        <v>300</v>
+      </c>
+      <c r="D8">
+        <f>D7+370</f>
+        <v>581</v>
+      </c>
       <c r="E8">
         <v>1200</v>
       </c>
@@ -1065,6 +1240,10 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
+      </c>
+      <c r="B9">
+        <f>B8+367.5</f>
+        <v>850.36</v>
       </c>
       <c r="E9">
         <v>1400</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AFC67D-2C0E-4449-A3A6-897939285940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6228B152-E4E9-334B-B9DD-0ADF345F2833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="1" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="176" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="176" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -766,7 +766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93274CCA-B4A1-EC41-A449-BF1C124B6C92}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6228B152-E4E9-334B-B9DD-0ADF345F2833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFD7444-595A-114F-ABDD-019B305EA1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="176" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A10" zoomScale="183" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,8 +718,12 @@
       <c r="A22">
         <v>20</v>
       </c>
+      <c r="B22">
+        <f>B21+662</f>
+        <v>5393.3600000000006</v>
+      </c>
       <c r="C22">
-        <v>7600</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -751,7 +755,7 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>9000</v>
+        <v>8400</v>
       </c>
     </row>
   </sheetData>
@@ -1089,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53F0CC7-B270-0845-84AB-F38903ACB32E}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,6 +1249,10 @@
         <f>B8+367.5</f>
         <v>850.36</v>
       </c>
+      <c r="C9">
+        <f>C8+662</f>
+        <v>962</v>
+      </c>
       <c r="E9">
         <v>1400</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFD7444-595A-114F-ABDD-019B305EA1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53816CD0-AEDE-F24B-989D-7B3DE85202F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
@@ -58,7 +58,7 @@
     <t>Gameweek</t>
   </si>
   <si>
-    <t xml:space="preserve">Elias </t>
+    <t>Elias</t>
   </si>
 </sst>
 </file>
@@ -154,7 +154,7 @@
   <autoFilter ref="A1:E10" xr:uid="{77D1F958-B43A-BB4E-B290-D9CFD030EB09}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6B82D18C-F4C7-FD42-B159-97F80E78ABC7}" name="Gameweek"/>
-    <tableColumn id="2" xr3:uid="{42E74C4D-5F35-C944-BB39-C1045FC1894F}" name="Elias "/>
+    <tableColumn id="2" xr3:uid="{42E74C4D-5F35-C944-BB39-C1045FC1894F}" name="Elias"/>
     <tableColumn id="3" xr3:uid="{48B1D0D5-552E-624F-9946-7A206B20C953}" name="Mads"/>
     <tableColumn id="4" xr3:uid="{4A9FB99A-2B56-B443-924B-9C16FB2DAF37}" name="Tobias"/>
     <tableColumn id="5" xr3:uid="{CAEB7DF4-75FE-E645-BB06-A1C594B1048D}" name="Baseline"/>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="183" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A12" zoomScale="183" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -731,7 +731,7 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>7800</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -739,7 +739,7 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>8000</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -771,7 +771,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53816CD0-AEDE-F24B-989D-7B3DE85202F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC3F08E-4E1A-9241-BDC6-629C5E2A54E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="183" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A9" zoomScale="183" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -729,6 +729,10 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
+      </c>
+      <c r="B23">
+        <f>B22+225.35</f>
+        <v>5618.7100000000009</v>
       </c>
       <c r="C23">
         <v>7200</v>
@@ -1094,7 +1098,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1253,6 +1257,10 @@
         <f>C8+662</f>
         <v>962</v>
       </c>
+      <c r="D9">
+        <f>D8+225.35</f>
+        <v>806.35</v>
+      </c>
       <c r="E9">
         <v>1400</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC3F08E-4E1A-9241-BDC6-629C5E2A54E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E619F1EC-C1A3-DF4C-BB00-C664A510FFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="183" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A8" zoomScale="183" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -741,6 +741,10 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
+      </c>
+      <c r="B24">
+        <f>B23+456</f>
+        <v>6074.7100000000009</v>
       </c>
       <c r="C24">
         <v>7400</v>
@@ -1098,7 +1102,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1269,6 +1273,10 @@
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10">
+        <f>B9+456</f>
+        <v>1306.3600000000001</v>
+      </c>
       <c r="E10">
         <v>1600</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E619F1EC-C1A3-DF4C-BB00-C664A510FFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40903E36-BE43-124B-8A56-FC22797050A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,8 +126,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}" name="Table3" displayName="Table3" ref="A1:C26" totalsRowShown="0">
-  <autoFilter ref="A1:C26" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}" name="Table3" displayName="Table3" ref="A1:C29" totalsRowShown="0">
+  <autoFilter ref="A1:C29" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B22A68A6-9800-4247-AD72-C861467464A4}" name="Uke"/>
     <tableColumn id="2" xr3:uid="{7BFF6EF7-2935-3140-8D57-F688DA260212}" name="Reisekassa"/>
@@ -150,8 +150,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77D1F958-B43A-BB4E-B290-D9CFD030EB09}" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10" xr:uid="{77D1F958-B43A-BB4E-B290-D9CFD030EB09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77D1F958-B43A-BB4E-B290-D9CFD030EB09}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13" xr:uid="{77D1F958-B43A-BB4E-B290-D9CFD030EB09}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6B82D18C-F4C7-FD42-B159-97F80E78ABC7}" name="Gameweek"/>
     <tableColumn id="2" xr3:uid="{42E74C4D-5F35-C944-BB39-C1045FC1894F}" name="Elias"/>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="183" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="183" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -764,6 +764,30 @@
       </c>
       <c r="C26">
         <v>8400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>9600</v>
       </c>
     </row>
   </sheetData>
@@ -779,7 +803,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1099,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53F0CC7-B270-0845-84AB-F38903ACB32E}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1281,6 +1305,30 @@
         <v>1600</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>2200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40903E36-BE43-124B-8A56-FC22797050A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F607A1F-2E03-554D-8A4B-F59BC42078D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="183" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="183" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -753,6 +753,10 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <f>B24+864+600</f>
+        <v>7538.7100000000009</v>
       </c>
       <c r="C25">
         <v>8200</v>
@@ -1126,7 +1130,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1301,6 +1305,10 @@
         <f>B9+456</f>
         <v>1306.3600000000001</v>
       </c>
+      <c r="C10">
+        <f>C9+864</f>
+        <v>1826</v>
+      </c>
       <c r="E10">
         <v>1600</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F607A1F-2E03-554D-8A4B-F59BC42078D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C360B438-5966-F646-92DE-0F213962049F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="183" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A13" zoomScale="183" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -765,6 +765,10 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
+      </c>
+      <c r="B26">
+        <f>B25+423.74</f>
+        <v>7962.4500000000007</v>
       </c>
       <c r="C26">
         <v>8400</v>
@@ -1129,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53F0CC7-B270-0845-84AB-F38903ACB32E}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1309,6 +1313,10 @@
         <f>C9+864</f>
         <v>1826</v>
       </c>
+      <c r="D10">
+        <f>D9+423.74</f>
+        <v>1230.0900000000001</v>
+      </c>
       <c r="E10">
         <v>1600</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C360B438-5966-F646-92DE-0F213962049F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C935E3-E3B3-5B49-9AC2-D64A84A787EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
@@ -126,8 +126,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}" name="Table3" displayName="Table3" ref="A1:C29" totalsRowShown="0">
-  <autoFilter ref="A1:C29" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}" name="Table3" displayName="Table3" ref="A1:C32" totalsRowShown="0">
+  <autoFilter ref="A1:C32" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B22A68A6-9800-4247-AD72-C861467464A4}" name="Uke"/>
     <tableColumn id="2" xr3:uid="{7BFF6EF7-2935-3140-8D57-F688DA260212}" name="Reisekassa"/>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="183" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A18" zoomScale="183" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -778,6 +778,10 @@
       <c r="A27">
         <v>25</v>
       </c>
+      <c r="B27">
+        <f>B26+200.01</f>
+        <v>8162.4600000000009</v>
+      </c>
       <c r="C27">
         <v>8600</v>
       </c>
@@ -796,6 +800,30 @@
       </c>
       <c r="C29">
         <v>9600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>10200</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1162,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1325,6 +1353,10 @@
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="B11">
+        <f>B10+200.01</f>
+        <v>1506.3700000000001</v>
+      </c>
       <c r="E11">
         <v>1800</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C935E3-E3B3-5B49-9AC2-D64A84A787EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582E4310-D9D3-2F43-AC65-6A8477D5A2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,8 +126,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}" name="Table3" displayName="Table3" ref="A1:C32" totalsRowShown="0">
-  <autoFilter ref="A1:C32" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}" name="Table3" displayName="Table3" ref="A1:C35" totalsRowShown="0">
+  <autoFilter ref="A1:C35" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B22A68A6-9800-4247-AD72-C861467464A4}" name="Uke"/>
     <tableColumn id="2" xr3:uid="{7BFF6EF7-2935-3140-8D57-F688DA260212}" name="Reisekassa"/>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="183" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="166" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -790,6 +790,10 @@
       <c r="A28">
         <v>26</v>
       </c>
+      <c r="B28">
+        <f>B27</f>
+        <v>8162.4600000000009</v>
+      </c>
       <c r="C28">
         <v>8800</v>
       </c>
@@ -798,6 +802,10 @@
       <c r="A29">
         <v>27</v>
       </c>
+      <c r="B29">
+        <f>B28+600</f>
+        <v>8762.4600000000009</v>
+      </c>
       <c r="C29">
         <v>9600</v>
       </c>
@@ -806,6 +814,10 @@
       <c r="A30">
         <v>28</v>
       </c>
+      <c r="B30">
+        <f>B29</f>
+        <v>8762.4600000000009</v>
+      </c>
       <c r="C30">
         <v>9800</v>
       </c>
@@ -814,6 +826,10 @@
       <c r="A31">
         <v>29</v>
       </c>
+      <c r="B31">
+        <f>B30</f>
+        <v>8762.4600000000009</v>
+      </c>
       <c r="C31">
         <v>10000</v>
       </c>
@@ -822,8 +838,41 @@
       <c r="A32">
         <v>30</v>
       </c>
+      <c r="B32">
+        <f>B31+413.59</f>
+        <v>9176.0500000000011</v>
+      </c>
       <c r="C32">
         <v>10200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f>B32+600</f>
+        <v>9776.0500000000011</v>
+      </c>
+      <c r="C33">
+        <f>C32+800</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>11400</v>
       </c>
     </row>
   </sheetData>
@@ -1161,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53F0CC7-B270-0845-84AB-F38903ACB32E}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1357,6 +1406,14 @@
         <f>B10+200.01</f>
         <v>1506.3700000000001</v>
       </c>
+      <c r="C11">
+        <f>C10</f>
+        <v>1826</v>
+      </c>
+      <c r="D11">
+        <f>D10</f>
+        <v>1230.0900000000001</v>
+      </c>
       <c r="E11">
         <v>1800</v>
       </c>
@@ -1365,6 +1422,18 @@
       <c r="A12">
         <v>10</v>
       </c>
+      <c r="B12">
+        <f>B11</f>
+        <v>1506.3700000000001</v>
+      </c>
+      <c r="C12">
+        <f>C11</f>
+        <v>1826</v>
+      </c>
+      <c r="D12">
+        <f>D11+413.59</f>
+        <v>1643.68</v>
+      </c>
       <c r="E12">
         <v>2000</v>
       </c>
@@ -1372,6 +1441,10 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
+      </c>
+      <c r="B13">
+        <f>B12</f>
+        <v>1506.3700000000001</v>
       </c>
       <c r="E13">
         <v>2200</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582E4310-D9D3-2F43-AC65-6A8477D5A2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BE774C-4D35-4C43-B068-31EFBAD6FB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="1" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,8 +126,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}" name="Table3" displayName="Table3" ref="A1:C35" totalsRowShown="0">
-  <autoFilter ref="A1:C35" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}" name="Table3" displayName="Table3" ref="A1:C37" totalsRowShown="0">
+  <autoFilter ref="A1:C37" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B22A68A6-9800-4247-AD72-C861467464A4}" name="Uke"/>
     <tableColumn id="2" xr3:uid="{7BFF6EF7-2935-3140-8D57-F688DA260212}" name="Reisekassa"/>
@@ -138,8 +138,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9BB84EFF-5614-AD4A-AF2B-42ECC901D661}" name="Table2" displayName="Table2" ref="A1:C26" totalsRowShown="0">
-  <autoFilter ref="A1:C26" xr:uid="{9BB84EFF-5614-AD4A-AF2B-42ECC901D661}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9BB84EFF-5614-AD4A-AF2B-42ECC901D661}" name="Table2" displayName="Table2" ref="A1:C40" totalsRowShown="0">
+  <autoFilter ref="A1:C40" xr:uid="{9BB84EFF-5614-AD4A-AF2B-42ECC901D661}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{49C2A2A3-AE31-1648-BEA9-EF6C6A0E3671}" name="Uke"/>
     <tableColumn id="2" xr3:uid="{1C722839-A068-D746-AC43-491F7C4358E8}" name="Reisekassa"/>
@@ -150,8 +150,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77D1F958-B43A-BB4E-B290-D9CFD030EB09}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13" xr:uid="{77D1F958-B43A-BB4E-B290-D9CFD030EB09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77D1F958-B43A-BB4E-B290-D9CFD030EB09}" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+  <autoFilter ref="A1:E14" xr:uid="{77D1F958-B43A-BB4E-B290-D9CFD030EB09}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6B82D18C-F4C7-FD42-B159-97F80E78ABC7}" name="Gameweek"/>
     <tableColumn id="2" xr3:uid="{42E74C4D-5F35-C944-BB39-C1045FC1894F}" name="Elias"/>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="166" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A28" zoomScale="166" workbookViewId="0">
+      <selection activeCell="C37" sqref="C2:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -863,6 +863,10 @@
       <c r="A34">
         <v>32</v>
       </c>
+      <c r="B34">
+        <f>9776.05</f>
+        <v>9776.0499999999993</v>
+      </c>
       <c r="C34">
         <v>11200</v>
       </c>
@@ -871,8 +875,36 @@
       <c r="A35">
         <v>33</v>
       </c>
+      <c r="B35">
+        <f>9776.05</f>
+        <v>9776.0499999999993</v>
+      </c>
       <c r="C35">
         <v>11400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f>9776.05</f>
+        <v>9776.0499999999993</v>
+      </c>
+      <c r="C36">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f>9776.05</f>
+        <v>9776.0499999999993</v>
+      </c>
+      <c r="C37">
+        <v>11800</v>
       </c>
     </row>
   </sheetData>
@@ -885,10 +917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93274CCA-B4A1-EC41-A449-BF1C124B6C92}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1147,7 +1179,7 @@
         <v>6198.3600000000006</v>
       </c>
       <c r="C22">
-        <v>7600</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1159,7 +1191,7 @@
         <v>7841.3600000000006</v>
       </c>
       <c r="C23">
-        <v>7800</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1171,7 +1203,7 @@
         <v>10186.36</v>
       </c>
       <c r="C24">
-        <v>8000</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1195,7 +1227,176 @@
         <v>19765.36</v>
       </c>
       <c r="C26">
-        <v>9000</v>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:B37" si="0">B26+367.5</f>
+        <v>20132.86</v>
+      </c>
+      <c r="C27">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B37" si="1">B27+1467</f>
+        <v>21599.86</v>
+      </c>
+      <c r="C28">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:B37" si="2">B28+1643</f>
+        <v>23242.86</v>
+      </c>
+      <c r="C29">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30:B37" si="3">B29+2345</f>
+        <v>25587.86</v>
+      </c>
+      <c r="C30">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31:B37" si="4">B30+3789</f>
+        <v>29376.86</v>
+      </c>
+      <c r="C31">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:B37" si="5">B31+5790</f>
+        <v>35166.86</v>
+      </c>
+      <c r="C32">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:B37" si="6">B32+367.5</f>
+        <v>35534.36</v>
+      </c>
+      <c r="C33">
+        <f>C32+800</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:B37" si="7">B33+1467</f>
+        <v>37001.360000000001</v>
+      </c>
+      <c r="C34">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:B37" si="8">B34+1643</f>
+        <v>38644.36</v>
+      </c>
+      <c r="C35">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:B37" si="9">B35+2345</f>
+        <v>40989.360000000001</v>
+      </c>
+      <c r="C36">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37" si="10">B36+3789</f>
+        <v>44778.36</v>
+      </c>
+      <c r="C37">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f>B37</f>
+        <v>44778.36</v>
+      </c>
+      <c r="C38">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f>B38</f>
+        <v>44778.36</v>
+      </c>
+      <c r="C39">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <f>B39+600</f>
+        <v>45378.36</v>
+      </c>
+      <c r="C40">
+        <v>13000</v>
       </c>
     </row>
   </sheetData>
@@ -1208,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53F0CC7-B270-0845-84AB-F38903ACB32E}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1446,8 +1647,32 @@
         <f>B12</f>
         <v>1506.3700000000001</v>
       </c>
+      <c r="C13">
+        <f>C12</f>
+        <v>1826</v>
+      </c>
+      <c r="D13">
+        <f>D12</f>
+        <v>1643.68</v>
+      </c>
       <c r="E13">
         <v>2200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f>B13</f>
+        <v>1506.3700000000001</v>
+      </c>
+      <c r="C14">
+        <f>C13</f>
+        <v>1826</v>
+      </c>
+      <c r="E14">
+        <v>2400</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BE774C-4D35-4C43-B068-31EFBAD6FB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332231F3-2498-9C48-B9A9-1B74E6A8B711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="1" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,8 +126,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}" name="Table3" displayName="Table3" ref="A1:C37" totalsRowShown="0">
-  <autoFilter ref="A1:C37" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}" name="Table3" displayName="Table3" ref="A1:C38" totalsRowShown="0">
+  <autoFilter ref="A1:C38" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B22A68A6-9800-4247-AD72-C861467464A4}" name="Uke"/>
     <tableColumn id="2" xr3:uid="{7BFF6EF7-2935-3140-8D57-F688DA260212}" name="Reisekassa"/>
@@ -138,8 +138,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9BB84EFF-5614-AD4A-AF2B-42ECC901D661}" name="Table2" displayName="Table2" ref="A1:C40" totalsRowShown="0">
-  <autoFilter ref="A1:C40" xr:uid="{9BB84EFF-5614-AD4A-AF2B-42ECC901D661}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9BB84EFF-5614-AD4A-AF2B-42ECC901D661}" name="Table2" displayName="Table2" ref="A1:C46" totalsRowShown="0">
+  <autoFilter ref="A1:C46" xr:uid="{9BB84EFF-5614-AD4A-AF2B-42ECC901D661}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{49C2A2A3-AE31-1648-BEA9-EF6C6A0E3671}" name="Uke"/>
     <tableColumn id="2" xr3:uid="{1C722839-A068-D746-AC43-491F7C4358E8}" name="Reisekassa"/>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="166" workbookViewId="0">
-      <selection activeCell="C37" sqref="C2:C37"/>
+    <sheetView topLeftCell="A25" zoomScale="166" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -905,6 +905,19 @@
       </c>
       <c r="C37">
         <v>11800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f>B37+1137.35+600</f>
+        <v>11513.4</v>
+      </c>
+      <c r="C38">
+        <f>C37+800</f>
+        <v>12600</v>
       </c>
     </row>
   </sheetData>
@@ -917,10 +930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93274CCA-B4A1-EC41-A449-BF1C124B6C92}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1175,8 +1188,8 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <f>B21+1467</f>
-        <v>6198.3600000000006</v>
+        <f>B21+662</f>
+        <v>5393.3600000000006</v>
       </c>
       <c r="C22">
         <v>7000</v>
@@ -1187,8 +1200,8 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <f>B22+1643</f>
-        <v>7841.3600000000006</v>
+        <f>B22+225.35</f>
+        <v>5618.7100000000009</v>
       </c>
       <c r="C23">
         <v>7200</v>
@@ -1199,8 +1212,8 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <f>B23+2345</f>
-        <v>10186.36</v>
+        <f>B23+456</f>
+        <v>6074.7100000000009</v>
       </c>
       <c r="C24">
         <v>7400</v>
@@ -1211,8 +1224,8 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <f>B24+3789</f>
-        <v>13975.36</v>
+        <f>B24+864+600</f>
+        <v>7538.7100000000009</v>
       </c>
       <c r="C25">
         <v>8200</v>
@@ -1223,8 +1236,8 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <f>B25+5790</f>
-        <v>19765.36</v>
+        <f>B25+423.74</f>
+        <v>7962.4500000000007</v>
       </c>
       <c r="C26">
         <v>8400</v>
@@ -1235,8 +1248,8 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27:B37" si="0">B26+367.5</f>
-        <v>20132.86</v>
+        <f>B26+200.01</f>
+        <v>8162.4600000000009</v>
       </c>
       <c r="C27">
         <v>8600</v>
@@ -1247,8 +1260,8 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:B37" si="1">B27+1467</f>
-        <v>21599.86</v>
+        <f>B27</f>
+        <v>8162.4600000000009</v>
       </c>
       <c r="C28">
         <v>8800</v>
@@ -1259,8 +1272,8 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:B37" si="2">B28+1643</f>
-        <v>23242.86</v>
+        <f>B28+600</f>
+        <v>8762.4600000000009</v>
       </c>
       <c r="C29">
         <v>9600</v>
@@ -1271,8 +1284,8 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30:B37" si="3">B29+2345</f>
-        <v>25587.86</v>
+        <f>B29</f>
+        <v>8762.4600000000009</v>
       </c>
       <c r="C30">
         <v>9800</v>
@@ -1283,8 +1296,8 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:B37" si="4">B30+3789</f>
-        <v>29376.86</v>
+        <f>B30</f>
+        <v>8762.4600000000009</v>
       </c>
       <c r="C31">
         <v>10000</v>
@@ -1295,8 +1308,8 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:B37" si="5">B31+5790</f>
-        <v>35166.86</v>
+        <f>B31+413.59</f>
+        <v>9176.0500000000011</v>
       </c>
       <c r="C32">
         <v>10200</v>
@@ -1307,8 +1320,8 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:B37" si="6">B32+367.5</f>
-        <v>35534.36</v>
+        <f>B32+600</f>
+        <v>9776.0500000000011</v>
       </c>
       <c r="C33">
         <f>C32+800</f>
@@ -1320,8 +1333,8 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:B37" si="7">B33+1467</f>
-        <v>37001.360000000001</v>
+        <f>9776.05</f>
+        <v>9776.0499999999993</v>
       </c>
       <c r="C34">
         <v>11200</v>
@@ -1332,8 +1345,8 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <f t="shared" ref="B35:B37" si="8">B34+1643</f>
-        <v>38644.36</v>
+        <f>9776.05</f>
+        <v>9776.0499999999993</v>
       </c>
       <c r="C35">
         <v>11400</v>
@@ -1344,8 +1357,8 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <f t="shared" ref="B36:B37" si="9">B35+2345</f>
-        <v>40989.360000000001</v>
+        <f>9776.05</f>
+        <v>9776.0499999999993</v>
       </c>
       <c r="C36">
         <v>11600</v>
@@ -1356,8 +1369,8 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <f t="shared" ref="B37" si="10">B36+3789</f>
-        <v>44778.36</v>
+        <f>9776.05</f>
+        <v>9776.0499999999993</v>
       </c>
       <c r="C37">
         <v>11800</v>
@@ -1368,11 +1381,12 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <f>B37</f>
-        <v>44778.36</v>
+        <f>B37+1137.35+600</f>
+        <v>11513.4</v>
       </c>
       <c r="C38">
-        <v>12000</v>
+        <f>C37+800</f>
+        <v>12600</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1380,8 +1394,8 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <f>B38</f>
-        <v>44778.36</v>
+        <f>B38*1.1</f>
+        <v>12664.74</v>
       </c>
       <c r="C39">
         <v>12800</v>
@@ -1392,11 +1406,83 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <f>B39+600</f>
-        <v>45378.36</v>
+        <f>B39*1.23</f>
+        <v>15577.6302</v>
       </c>
       <c r="C40">
         <v>13000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <f>B40*1.34</f>
+        <v>20874.024468</v>
+      </c>
+      <c r="C41">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <f>B41*1.12</f>
+        <v>23378.907404160003</v>
+      </c>
+      <c r="C42">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f>B42*1.3</f>
+        <v>30392.579625408005</v>
+      </c>
+      <c r="C43">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <f>B43*1.5</f>
+        <v>45588.869438112008</v>
+      </c>
+      <c r="C44">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <f>B44*1.1</f>
+        <v>50147.756381923209</v>
+      </c>
+      <c r="C45">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <f>B45*1.05</f>
+        <v>52655.144201019371</v>
+      </c>
+      <c r="C46">
+        <v>15400</v>
       </c>
     </row>
   </sheetData>
@@ -1411,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53F0CC7-B270-0845-84AB-F38903ACB32E}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1624,11 +1710,11 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f>B11</f>
+        <f t="shared" ref="B12:C14" si="0">B11</f>
         <v>1506.3700000000001</v>
       </c>
       <c r="C12">
-        <f>C11</f>
+        <f t="shared" si="0"/>
         <v>1826</v>
       </c>
       <c r="D12">
@@ -1644,11 +1730,11 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <f>B12</f>
+        <f t="shared" si="0"/>
         <v>1506.3700000000001</v>
       </c>
       <c r="C13">
-        <f>C12</f>
+        <f t="shared" si="0"/>
         <v>1826</v>
       </c>
       <c r="D13">
@@ -1664,12 +1750,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <f>B13</f>
+        <f t="shared" si="0"/>
         <v>1506.3700000000001</v>
       </c>
       <c r="C14">
-        <f>C13</f>
+        <f t="shared" si="0"/>
         <v>1826</v>
+      </c>
+      <c r="D14">
+        <f>D13+1137.35</f>
+        <v>2781.0299999999997</v>
       </c>
       <c r="E14">
         <v>2400</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332231F3-2498-9C48-B9A9-1B74E6A8B711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD49201D-9BCE-B54C-8180-88740FE2613C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,8 +126,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}" name="Table3" displayName="Table3" ref="A1:C38" totalsRowShown="0">
-  <autoFilter ref="A1:C38" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}" name="Table3" displayName="Table3" ref="A1:C44" totalsRowShown="0">
+  <autoFilter ref="A1:C44" xr:uid="{ED81BF1F-C160-3D49-A541-118B96CF5157}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B22A68A6-9800-4247-AD72-C861467464A4}" name="Uke"/>
     <tableColumn id="2" xr3:uid="{7BFF6EF7-2935-3140-8D57-F688DA260212}" name="Reisekassa"/>
@@ -150,8 +150,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77D1F958-B43A-BB4E-B290-D9CFD030EB09}" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
-  <autoFilter ref="A1:E14" xr:uid="{77D1F958-B43A-BB4E-B290-D9CFD030EB09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77D1F958-B43A-BB4E-B290-D9CFD030EB09}" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+  <autoFilter ref="A1:E17" xr:uid="{77D1F958-B43A-BB4E-B290-D9CFD030EB09}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6B82D18C-F4C7-FD42-B159-97F80E78ABC7}" name="Gameweek"/>
     <tableColumn id="2" xr3:uid="{42E74C4D-5F35-C944-BB39-C1045FC1894F}" name="Elias"/>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="166" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B38"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="166" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -918,6 +918,54 @@
       <c r="C38">
         <f>C37+800</f>
         <v>12600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>14600</v>
       </c>
     </row>
   </sheetData>
@@ -932,7 +980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93274CCA-B4A1-EC41-A449-BF1C124B6C92}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -1495,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53F0CC7-B270-0845-84AB-F38903ACB32E}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1765,6 +1813,30 @@
         <v>2400</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>2800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD49201D-9BCE-B54C-8180-88740FE2613C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCF317F-E87E-3A46-9FFE-6CDBCA381711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="166" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="166" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -1545,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53F0CC7-B270-0845-84AB-F38903ACB32E}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1826,7 +1826,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>2700</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1834,7 +1834,7 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>2800</v>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliassovikgunnarsson/streamlit/tippelaget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCF317F-E87E-3A46-9FFE-6CDBCA381711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B980452B-A0E8-C246-A8C9-0AB62F781A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="1" xr2:uid="{5445944C-8ECF-A14C-BC6D-A3BC3CAF2CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865F3B5-21D7-B84A-BA67-D3E35E70A024}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="166" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A35" zoomScale="166" workbookViewId="0">
+      <selection activeCell="B44" sqref="B2:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -924,6 +924,9 @@
       <c r="A39">
         <v>37</v>
       </c>
+      <c r="B39">
+        <v>11513.4</v>
+      </c>
       <c r="C39">
         <v>13000</v>
       </c>
@@ -932,6 +935,9 @@
       <c r="A40">
         <v>38</v>
       </c>
+      <c r="B40">
+        <v>11513.4</v>
+      </c>
       <c r="C40">
         <v>13200</v>
       </c>
@@ -940,6 +946,9 @@
       <c r="A41">
         <v>39</v>
       </c>
+      <c r="B41">
+        <v>11513.4</v>
+      </c>
       <c r="C41">
         <v>13400</v>
       </c>
@@ -948,6 +957,10 @@
       <c r="A42">
         <v>40</v>
       </c>
+      <c r="B42">
+        <f>11513.4+600</f>
+        <v>12113.4</v>
+      </c>
       <c r="C42">
         <v>14200</v>
       </c>
@@ -956,6 +969,10 @@
       <c r="A43">
         <v>41</v>
       </c>
+      <c r="B43">
+        <f>11513.4+600</f>
+        <v>12113.4</v>
+      </c>
       <c r="C43">
         <v>14400</v>
       </c>
@@ -963,6 +980,10 @@
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
+      </c>
+      <c r="B44">
+        <f>11513.4+600</f>
+        <v>12113.4</v>
       </c>
       <c r="C44">
         <v>14600</v>
@@ -980,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93274CCA-B4A1-EC41-A449-BF1C124B6C92}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1442,8 +1463,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <f>B38*1.1</f>
-        <v>12664.74</v>
+        <v>11513.4</v>
       </c>
       <c r="C39">
         <v>12800</v>
@@ -1454,8 +1474,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <f>B39*1.23</f>
-        <v>15577.6302</v>
+        <v>11513.4</v>
       </c>
       <c r="C40">
         <v>13000</v>
@@ -1466,8 +1485,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <f>B40*1.34</f>
-        <v>20874.024468</v>
+        <v>11513.4</v>
       </c>
       <c r="C41">
         <v>13200</v>
@@ -1478,8 +1496,8 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <f>B41*1.12</f>
-        <v>23378.907404160003</v>
+        <f>11513.4+600</f>
+        <v>12113.4</v>
       </c>
       <c r="C42">
         <v>14000</v>
@@ -1490,8 +1508,8 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <f>B42*1.3</f>
-        <v>30392.579625408005</v>
+        <f>11513.4+600</f>
+        <v>12113.4</v>
       </c>
       <c r="C43">
         <v>14200</v>
@@ -1502,8 +1520,8 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <f>B43*1.5</f>
-        <v>45588.869438112008</v>
+        <f>11513.4+600</f>
+        <v>12113.4</v>
       </c>
       <c r="C44">
         <v>14400</v>
@@ -1514,8 +1532,8 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <f>B44*1.1</f>
-        <v>50147.756381923209</v>
+        <f>B44*1.8</f>
+        <v>21804.12</v>
       </c>
       <c r="C45">
         <v>14600</v>
@@ -1526,8 +1544,8 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <f>B45*1.05</f>
-        <v>52655.144201019371</v>
+        <f>B45*1.6</f>
+        <v>34886.591999999997</v>
       </c>
       <c r="C46">
         <v>15400</v>
@@ -1545,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53F0CC7-B270-0845-84AB-F38903ACB32E}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1758,7 +1776,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:C14" si="0">B11</f>
+        <f t="shared" ref="B12:C17" si="0">B11</f>
         <v>1506.3700000000001</v>
       </c>
       <c r="C12">
@@ -1817,6 +1835,18 @@
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1506.3700000000001</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1826</v>
+      </c>
+      <c r="D15">
+        <f>D14</f>
+        <v>2781.0299999999997</v>
+      </c>
       <c r="E15">
         <v>2600</v>
       </c>
@@ -1825,6 +1855,18 @@
       <c r="A16">
         <v>14</v>
       </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1506.3700000000001</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1826</v>
+      </c>
+      <c r="D16">
+        <f>D15</f>
+        <v>2781.0299999999997</v>
+      </c>
       <c r="E16">
         <v>2800</v>
       </c>
@@ -1832,6 +1874,18 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1506.3700000000001</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1826</v>
+      </c>
+      <c r="D17">
+        <f>D16</f>
+        <v>2781.0299999999997</v>
       </c>
       <c r="E17">
         <v>3000</v>
